--- a/test_data/synthetic/UseTax_Claims.xlsx
+++ b/test_data/synthetic/UseTax_Claims.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="238">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -139,6 +139,18 @@
     <t>V0020</t>
   </si>
   <si>
+    <t>V0021</t>
+  </si>
+  <si>
+    <t>V0022</t>
+  </si>
+  <si>
+    <t>V0023</t>
+  </si>
+  <si>
+    <t>V0024</t>
+  </si>
+  <si>
     <t>Forest Equipment Co</t>
   </si>
   <si>
@@ -178,6 +190,12 @@
     <t>RIVER ANALYTICS LLC</t>
   </si>
   <si>
+    <t>Northstar Technologies Inc</t>
+  </si>
+  <si>
+    <t>Valley Data Systems</t>
+  </si>
+  <si>
     <t>INV-2024-20001.pdf</t>
   </si>
   <si>
@@ -265,6 +283,18 @@
     <t>PO-4900200009.pdf</t>
   </si>
   <si>
+    <t>PO-Hardware-Tracker.xlsx</t>
+  </si>
+  <si>
+    <t>PO-Software-Summary.xlsx</t>
+  </si>
+  <si>
+    <t>PO-Approval-Email.eml</t>
+  </si>
+  <si>
+    <t>PO-Consulting-Quotation.docx</t>
+  </si>
+  <si>
     <t>INV-2024-20001</t>
   </si>
   <si>
@@ -376,6 +406,12 @@
     <t>4900561894</t>
   </si>
   <si>
+    <t>PO-4900348121</t>
+  </si>
+  <si>
+    <t>Q-73483</t>
+  </si>
+  <si>
     <t>2023-11-08</t>
   </si>
   <si>
@@ -475,6 +511,18 @@
     <t>Technical Consulting, Support Contract, Training Program, Managed Services</t>
   </si>
   <si>
+    <t>IT Equipment (Multi-vendor PO)</t>
+  </si>
+  <si>
+    <t>Software License (Multi-vendor PO)</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>Consulting Services</t>
+  </si>
+  <si>
     <t>6x Managed Services - Monthly ($10,618.00 ea), 8x Training Program - On-site ($16,069.00 ea), 9x Technical Consulting - Per Diem ($3,438.00 ea), 3x Support Contract - Annual ($29,589.00 ea)</t>
   </si>
   <si>
@@ -535,6 +583,18 @@
     <t>10x Firewall Appliance ($17,455 ea), 10x Workstation - High Performance ($3,659 ea), 4x Server Rack - 42U ($5,426 ea), 6x Network Switch - 48 Port ($2,234 ea), 1x UPS Battery Backup System ($7,800 ea), 5x Storage Array - 100TB ($17,982 ea)</t>
   </si>
   <si>
+    <t>UPS Battery Backup, Server Rack, System Integration, Storage Array</t>
+  </si>
+  <si>
+    <t>Development Tools, Enterprise License, Firewall, Security Suite, Managed Services</t>
+  </si>
+  <si>
+    <t>Training Program (7), Technical Consulting (8), System Integration Services (9)</t>
+  </si>
+  <si>
+    <t>Telecom services implementation</t>
+  </si>
+  <si>
     <t>INVOICE Forest Equipment Co 800 Industrial Park Minneapolis, MN 55401 Tax ID: 41-9012345 Phone: (612) 555-1000 PLEASE REFER TO YOUR ACCOUNT NO., AND OUR INVOICE AND ORDER NO. IN ALL COMMUNICATIONS REGARDING THIS INVOICE Your Account No.: 0038654299 Invoice No.: INV-2024-20001</t>
   </si>
   <si>
@@ -641,6 +701,18 @@
   </si>
   <si>
     <t>Firewall Appliance, Workstation - High Performance, Server Rack - 42U, Network Switch - 48 Port, UPS Battery Backup System, Storage Array - 100TB</t>
+  </si>
+  <si>
+    <t>Hardware Tracker, Multi-vendor</t>
+  </si>
+  <si>
+    <t>Software Summary, Multi-vendor</t>
+  </si>
+  <si>
+    <t>Training, Consulting, System Integration</t>
+  </si>
+  <si>
+    <t>Consulting Services Proposal</t>
   </si>
   <si>
     <t>Seattle, WA</t>
@@ -662,6 +734,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -714,11 +789,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1013,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1089,22 +1165,22 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="I2">
         <v>311969</v>
@@ -1122,19 +1198,19 @@
         <v>10.25</v>
       </c>
       <c r="N2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="Q2" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="R2" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S2">
         <v>10.25</v>
@@ -1151,22 +1227,22 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="I3">
         <v>123883</v>
@@ -1184,19 +1260,19 @@
         <v>10.25</v>
       </c>
       <c r="N3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="Q3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="R3" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S3">
         <v>10.25</v>
@@ -1213,22 +1289,22 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="I4">
         <v>111089</v>
@@ -1246,19 +1322,19 @@
         <v>10.25</v>
       </c>
       <c r="N4" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="O4" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="Q4" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="R4" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S4">
         <v>10.25</v>
@@ -1275,22 +1351,22 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="I5">
         <v>1111390</v>
@@ -1308,19 +1384,19 @@
         <v>10.25</v>
       </c>
       <c r="N5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O5" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="Q5" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="R5" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S5">
         <v>10.25</v>
@@ -1337,19 +1413,19 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I6">
         <v>210801</v>
@@ -1367,19 +1443,19 @@
         <v>10.25</v>
       </c>
       <c r="N6" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="Q6" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="R6" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="S6">
         <v>8.4</v>
@@ -1396,22 +1472,22 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="I7">
         <v>117391</v>
@@ -1429,19 +1505,19 @@
         <v>10.25</v>
       </c>
       <c r="N7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="Q7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="R7" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="S7">
         <v>8.9</v>
@@ -1458,22 +1534,22 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="I8">
         <v>239171</v>
@@ -1491,19 +1567,19 @@
         <v>10.25</v>
       </c>
       <c r="N8" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="O8" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="Q8" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="R8" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S8">
         <v>10.25</v>
@@ -1520,22 +1596,22 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="I9">
         <v>965531</v>
@@ -1553,19 +1629,19 @@
         <v>10.25</v>
       </c>
       <c r="N9" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O9" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="Q9" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="R9" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S9">
         <v>10.25</v>
@@ -1582,22 +1658,22 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I10">
         <v>176967</v>
@@ -1615,19 +1691,19 @@
         <v>10.25</v>
       </c>
       <c r="N10" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="O10" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="Q10" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="R10" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S10">
         <v>10.25</v>
@@ -1644,19 +1720,19 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I11">
         <v>56444</v>
@@ -1674,19 +1750,19 @@
         <v>10.25</v>
       </c>
       <c r="N11" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O11" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="Q11" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="R11" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="S11">
         <v>8.300000000000001</v>
@@ -1703,19 +1779,19 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I12">
         <v>8068</v>
@@ -1733,19 +1809,19 @@
         <v>10.25</v>
       </c>
       <c r="N12" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="Q12" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="R12" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S12">
         <v>10.25</v>
@@ -1762,19 +1838,19 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="I13">
         <v>677742</v>
@@ -1792,19 +1868,19 @@
         <v>10.25</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="Q13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="R13" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S13">
         <v>10.25</v>
@@ -1821,16 +1897,16 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="I14">
         <v>712792</v>
@@ -1848,19 +1924,19 @@
         <v>10.25</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="Q14" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="R14" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S14">
         <v>10.25</v>
@@ -1877,19 +1953,19 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="I15">
         <v>727008</v>
@@ -1907,19 +1983,19 @@
         <v>10.25</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="Q15" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="R15" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S15">
         <v>10.25</v>
@@ -1936,19 +2012,19 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="I16">
         <v>256732</v>
@@ -1966,19 +2042,19 @@
         <v>10.25</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="Q16" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="R16" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="S16">
         <v>8.199999999999999</v>
@@ -1995,19 +2071,19 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H17" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="I17">
         <v>28602</v>
@@ -2025,19 +2101,19 @@
         <v>10.25</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="Q17" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="R17" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="S17">
         <v>8.4</v>
@@ -2054,19 +2130,19 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H18" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="I18">
         <v>570840</v>
@@ -2084,19 +2160,19 @@
         <v>10.25</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="Q18" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="R18" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S18">
         <v>10.25</v>
@@ -2113,19 +2189,19 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H19" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="I19">
         <v>335268</v>
@@ -2143,19 +2219,19 @@
         <v>10.25</v>
       </c>
       <c r="N19" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="Q19" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="R19" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S19">
         <v>10.25</v>
@@ -2172,19 +2248,19 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="I20">
         <v>11934</v>
@@ -2202,19 +2278,19 @@
         <v>10.25</v>
       </c>
       <c r="N20" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="Q20" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="R20" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S20">
         <v>10.25</v>
@@ -2231,16 +2307,16 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H21" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="I21">
         <v>343958</v>
@@ -2258,19 +2334,19 @@
         <v>10.25</v>
       </c>
       <c r="N21" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O21" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="Q21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="R21" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="S21">
         <v>10.25</v>
@@ -2279,6 +2355,212 @@
         <v>35255.7</v>
       </c>
       <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="2">
+        <v>45423</v>
+      </c>
+      <c r="I22">
+        <v>932805</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>95612.50999999999</v>
+      </c>
+      <c r="L22">
+        <v>932805</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>229</v>
+      </c>
+      <c r="R22" t="s">
+        <v>233</v>
+      </c>
+      <c r="S22">
+        <v>10.25</v>
+      </c>
+      <c r="T22">
+        <v>95612.50999999999</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="2">
+        <v>45410</v>
+      </c>
+      <c r="I23">
+        <v>442996</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>45407.09</v>
+      </c>
+      <c r="L23">
+        <v>442996</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O23" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>230</v>
+      </c>
+      <c r="R23" t="s">
+        <v>233</v>
+      </c>
+      <c r="S23">
+        <v>10.25</v>
+      </c>
+      <c r="T23">
+        <v>45407.09</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44971</v>
+      </c>
+      <c r="I24">
+        <v>1013687</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>103902.92</v>
+      </c>
+      <c r="L24">
+        <v>1013687</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>167</v>
+      </c>
+      <c r="O24" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>231</v>
+      </c>
+      <c r="R24" t="s">
+        <v>233</v>
+      </c>
+      <c r="S24">
+        <v>10.25</v>
+      </c>
+      <c r="T24">
+        <v>103902.92</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="2">
+        <v>45478</v>
+      </c>
+      <c r="I25">
+        <v>569214</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>58344.44</v>
+      </c>
+      <c r="L25">
+        <v>569214</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O25" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>232</v>
+      </c>
+      <c r="R25" t="s">
+        <v>233</v>
+      </c>
+      <c r="S25">
+        <v>10.25</v>
+      </c>
+      <c r="T25">
+        <v>58344.44</v>
+      </c>
+      <c r="U25">
         <v>0</v>
       </c>
     </row>
